--- a/IMSConfigurator/IMSConfigurator/146-2018 ГК «В-ЛЮКС».xlsx
+++ b/IMSConfigurator/IMSConfigurator/146-2018 ГК «В-ЛЮКС».xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.10\Common\SALES\PRIME TIME new\Коммерческие предложения\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\IMS\IMSConfigurator\IMSConfigurator\IMSConfigurator\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -228,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_([$€]* #,##0.00_);_([$€]* \(#,##0.00\);_([$€]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
@@ -1499,7 +1499,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
